--- a/deployment/Omaha_Cal_Info_CE06ISSP_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CE06ISSP_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$50</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2262,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2335,9 @@
       <c r="F2" s="31">
         <v>0.7416666666666667</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="32">
+        <v>42571</v>
+      </c>
       <c r="H2" s="33">
         <v>47.134999000000001</v>
       </c>
@@ -2464,7 +2461,7 @@
   </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
